--- a/CAS_2.xlsx
+++ b/CAS_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\PSC_Job_Analysis_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A399A698-69BA-4BEC-A094-534F0CE31B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C5A0F2-3CF0-4192-BF56-56DDDF9941D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,9 +665,6 @@
     <t>Embu</t>
   </si>
   <si>
-    <t>Samson Lotukoi Achuka (PWD_</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -2139,6 +2136,9 @@
   </si>
   <si>
     <t>Murang'a</t>
+  </si>
+  <si>
+    <t>Samson Lotukoi Achuka (PWD)</t>
   </si>
 </sst>
 </file>
@@ -2527,14 +2527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" customWidth="1"/>
     <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" customWidth="1"/>
   </cols>
@@ -2788,7 +2788,7 @@
         <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2900,7 +2900,7 @@
         <v>209</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2908,13 +2908,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2922,13 +2922,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2936,13 +2936,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2950,13 +2950,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2964,13 +2964,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2978,13 +2978,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2992,13 +2992,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3006,13 +3006,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3020,13 +3020,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3034,13 +3034,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3048,13 +3048,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3062,13 +3062,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3076,13 +3076,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3090,13 +3090,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3104,13 +3104,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3118,13 +3118,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3132,13 +3132,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3146,13 +3146,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3160,13 +3160,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3174,13 +3174,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3188,13 +3188,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3202,13 +3202,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3216,13 +3216,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3230,13 +3230,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3244,13 +3244,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3258,13 +3258,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3272,13 +3272,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3286,13 +3286,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3300,13 +3300,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3314,13 +3314,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3328,13 +3328,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3342,13 +3342,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3356,13 +3356,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3370,13 +3370,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3384,13 +3384,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3398,13 +3398,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3412,13 +3412,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3426,13 +3426,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3440,13 +3440,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3454,7 +3454,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
@@ -3468,13 +3468,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3482,13 +3482,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3496,13 +3496,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3510,13 +3510,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3524,13 +3524,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3538,13 +3538,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3552,13 +3552,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3566,13 +3566,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3580,13 +3580,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3594,13 +3594,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3608,13 +3608,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3622,13 +3622,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3636,13 +3636,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3650,13 +3650,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3664,13 +3664,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3678,13 +3678,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3692,13 +3692,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3706,13 +3706,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3720,13 +3720,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3734,13 +3734,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3748,13 +3748,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3762,13 +3762,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3776,7 +3776,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>29</v>
@@ -3790,13 +3790,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3804,13 +3804,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -3818,10 +3818,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>71</v>
@@ -3894,7 +3894,7 @@
         <v>47</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4034,7 +4034,7 @@
         <v>133</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4168,13 +4168,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4182,13 +4182,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4196,13 +4196,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4210,13 +4210,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4224,13 +4224,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4238,13 +4238,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4252,13 +4252,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4266,13 +4266,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4280,13 +4280,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4294,13 +4294,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4308,13 +4308,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4322,13 +4322,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4336,13 +4336,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4350,13 +4350,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4364,13 +4364,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4378,13 +4378,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4392,13 +4392,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4406,13 +4406,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4420,13 +4420,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4434,13 +4434,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4448,13 +4448,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4462,13 +4462,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4476,13 +4476,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4490,13 +4490,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4504,13 +4504,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4518,10 +4518,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>207</v>
@@ -4532,13 +4532,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4546,13 +4546,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4560,13 +4560,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4574,13 +4574,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4588,13 +4588,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4602,13 +4602,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4616,13 +4616,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4630,13 +4630,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4644,13 +4644,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4658,13 +4658,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4672,13 +4672,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4686,13 +4686,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4700,13 +4700,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4714,13 +4714,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4728,13 +4728,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4742,13 +4742,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4756,13 +4756,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4770,10 +4770,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>68</v>
@@ -4784,13 +4784,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4798,13 +4798,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4812,10 +4812,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>18</v>
@@ -4826,13 +4826,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4840,13 +4840,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4854,13 +4854,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4868,13 +4868,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4882,13 +4882,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4896,13 +4896,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4910,13 +4910,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4924,13 +4924,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4938,13 +4938,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4952,13 +4952,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4966,13 +4966,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4980,13 +4980,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -4994,13 +4994,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5008,13 +5008,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5022,13 +5022,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5036,13 +5036,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5050,13 +5050,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5064,13 +5064,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5092,10 +5092,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>56</v>
@@ -5148,13 +5148,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5414,13 +5414,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="D206" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5428,13 +5428,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="D207" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5442,13 +5442,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5456,13 +5456,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5470,13 +5470,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5484,13 +5484,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5498,13 +5498,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5512,13 +5512,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5526,13 +5526,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5540,13 +5540,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5554,13 +5554,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="D216" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5568,13 +5568,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5582,13 +5582,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5596,13 +5596,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5610,13 +5610,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5624,13 +5624,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5638,13 +5638,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="D222" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5652,13 +5652,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5666,13 +5666,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D224" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5680,13 +5680,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5694,13 +5694,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5708,13 +5708,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5722,13 +5722,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5736,13 +5736,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5750,13 +5750,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5764,13 +5764,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5778,13 +5778,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5792,13 +5792,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="D233" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5806,13 +5806,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="D234" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5820,13 +5820,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5834,13 +5834,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5848,13 +5848,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5862,13 +5862,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5876,13 +5876,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5890,13 +5890,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="D240" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -5904,13 +5904,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
